--- a/Documentation/Working_Documents/Bag_Carrier_BOM.xlsx
+++ b/Documentation/Working_Documents/Bag_Carrier_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylerf\Documents\oneDrive_Sync\Neil Squire\MMC-R&amp;D - 20-08 RD Documentation\Deliverables\Templates\Template Package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Bag-Carrier/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61E9DCA-D26A-4697-9717-AE0510EA617C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7D294B-1D77-4FFA-BA7C-6CAFDC8EC4D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t>Device: Bag Carrier</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Total Cost</t>
   </si>
@@ -48,18 +45,9 @@
     <t>Total filament (g)</t>
   </si>
   <si>
-    <t>Version: V2.0</t>
-  </si>
-  <si>
-    <t>Date Created: FEB 2022</t>
-  </si>
-  <si>
     <t>Commercial Parts:</t>
   </si>
   <si>
-    <t>Part type (Electrical. Mechanical, Sanitization, ect)</t>
-  </si>
-  <si>
     <t>Part Name</t>
   </si>
   <si>
@@ -112,6 +100,21 @@
   </si>
   <si>
     <t>Part and description</t>
+  </si>
+  <si>
+    <t>Bag Carrier</t>
+  </si>
+  <si>
+    <t>Last updated: 2024-Mar-27</t>
+  </si>
+  <si>
+    <t>Version: V2.0.1</t>
+  </si>
+  <si>
+    <t>&lt;None&gt;</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,12 +725,12 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -740,26 +743,26 @@
     <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.9">
+    <row r="1" spans="1:12" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18">
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="e">
         <f>SUM(G5:G12)+E19</f>
@@ -774,41 +777,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
-      <c r="A4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="17" t="e">
         <f>E5/D5</f>
@@ -820,7 +824,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" s="9"/>
       <c r="F6" s="17" t="e">
         <f>E6/D6</f>
@@ -832,7 +836,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" s="9"/>
       <c r="F7" s="17" t="e">
         <f t="shared" ref="F7" si="0">E7/D7</f>
@@ -844,22 +848,22 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="28">
         <v>25</v>
@@ -869,32 +873,32 @@
       <c r="G12" s="23"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -911,38 +915,38 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" s="17">
         <f t="shared" ref="E15:E18" si="1">(D15/1000)*$B$12</f>
         <v>0</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E17" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="D19" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E19" s="21">
         <f>SUM(E14:E18)</f>
@@ -950,9 +954,9 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -966,10 +970,20 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1"/>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -983,12 +997,12 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -998,26 +1012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
     <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
@@ -1238,14 +1232,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE24FD9B-492D-4F89-B19A-AF1842639ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE24FD9B-492D-4F89-B19A-AF1842639ECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>